--- a/DOCUMENTAÇÃO/Backlog - Projeto-Individual.xlsx
+++ b/DOCUMENTAÇÃO/Backlog - Projeto-Individual.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B64B71D-7505-49BF-B9ED-232E4C42EAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Downloads\Projeto-Individual\DOCUMENTAÇÃO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E0B9FB-C5FF-492E-BCC7-B33538EE3227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>REQUISITOS PARA A PROJETO INDIVIDUAL - BACKLOG</t>
   </si>
@@ -72,24 +77,12 @@
     <t>Contexto</t>
   </si>
   <si>
-    <t>Documentação do Projeto atualizada</t>
-  </si>
-  <si>
-    <t>Atualizar a documantação do projeto e colocar no GitHub</t>
-  </si>
-  <si>
     <t>ESSENCIAL</t>
   </si>
   <si>
     <t>INCOMPLETO</t>
   </si>
   <si>
-    <t>Integrantes novos no projeto</t>
-  </si>
-  <si>
-    <t>Adicionar os novos Integrantes do grupo no repositorio do GitHub</t>
-  </si>
-  <si>
     <t>Planejamento</t>
   </si>
   <si>
@@ -99,10 +92,10 @@
     <t>Criar a backlog do projeto</t>
   </si>
   <si>
-    <t>Criar o protótipo do Projeto no Figma</t>
-  </si>
-  <si>
-    <t>Criar o protótipo de como será o site na ferramenta Figma</t>
+    <t>COMPLETO</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
   </si>
   <si>
     <t>Dashboard e indicadores</t>
@@ -144,15 +137,6 @@
     <t>TI- Tecnologia da Informacao</t>
   </si>
   <si>
-    <t>Documentação do projeto</t>
-  </si>
-  <si>
-    <t>Criar a documentação do projeto</t>
-  </si>
-  <si>
-    <t>Criar a documentação do projeto, contexto, objetivo, justificativa e escopo</t>
-  </si>
-  <si>
     <t>Atividades Organizadas na ferramenta de Gestão</t>
   </si>
   <si>
@@ -220,13 +204,58 @@
   </si>
   <si>
     <t>Instalar e configurar o MySQL Workbench na maquina virtual linux (VMLinux)</t>
+  </si>
+  <si>
+    <t>Criar a documantação do projeto e colocar no GitHub</t>
+  </si>
+  <si>
+    <t>Criar Documentação do Projeto</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Prioridades legenda</t>
+  </si>
+  <si>
+    <t>1- Baixa</t>
+  </si>
+  <si>
+    <t>2- Média</t>
+  </si>
+  <si>
+    <t>3- Alta</t>
+  </si>
+  <si>
+    <t>Falta</t>
+  </si>
+  <si>
+    <t>ANDAMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +301,36 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB839F7"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF43AEE2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +475,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF393939"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF215C98"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D93D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF747474"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D0D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE9F8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -569,32 +674,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -602,31 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,158 +824,233 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFB5E6A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -817,6 +1081,33 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB5E6A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -828,6 +1119,965 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico de Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planejado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>165</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$3:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B208-4024-BE86-57C678FEEA0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entregue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>165</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$P$3:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B208-4024-BE86-57C678FEEA0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1468950768"/>
+        <c:axId val="1468952208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1468950768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1468952208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1468952208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468950768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>263769</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28985745-4DFE-B0CB-0E0A-D1FA3DA1AD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,593 +2397,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" ht="36">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="38">
+        <v>45967</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="43">
+        <v>13</v>
+      </c>
+      <c r="L3" s="43">
+        <v>3</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="48">
+        <v>157</v>
+      </c>
+      <c r="P3" s="49">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="20">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="48">
+        <v>0</v>
+      </c>
+      <c r="P4" s="49">
+        <f>SUM(P3-26)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="27">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="35">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="43">
+        <v>21</v>
+      </c>
+      <c r="L5" s="43">
+        <v>3</v>
+      </c>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="8">
+    <row r="6" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="43">
+        <v>21</v>
+      </c>
+      <c r="L6" s="43">
+        <v>3</v>
+      </c>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+    </row>
+    <row r="7" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="77"/>
+      <c r="B7" s="79">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="C7" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="43">
+        <v>8</v>
+      </c>
+      <c r="L7" s="43">
+        <v>3</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+    </row>
+    <row r="8" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="43">
+        <v>8</v>
+      </c>
+      <c r="L8" s="43">
+        <v>3</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+    </row>
+    <row r="9" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="29">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="I9" s="38">
+        <v>45668</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="43">
+        <v>5</v>
+      </c>
+      <c r="L9" s="43">
+        <v>2</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="49">
+    <row r="10" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75"/>
+      <c r="B10" s="29">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="20">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+    </row>
+    <row r="11" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="72">
+        <v>1</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="43">
+        <v>13</v>
+      </c>
+      <c r="L11" s="43">
+        <v>2</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+    </row>
+    <row r="12" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="68"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="43">
+        <v>13</v>
+      </c>
+      <c r="L12" s="43">
+        <v>2</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+    </row>
+    <row r="13" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69"/>
+      <c r="B13" s="30">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="43">
         <v>21</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="L13" s="43">
+        <v>3</v>
+      </c>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="13"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="8">
+    <row r="14" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="43">
+        <v>8</v>
+      </c>
+      <c r="L14" s="43">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="43">
+    <row r="15" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="32">
         <v>1</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
+      <c r="C15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="43">
+        <v>13</v>
+      </c>
+      <c r="L15" s="43">
+        <v>2</v>
+      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+    <row r="16" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="Q16" s="54"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+    <row r="17" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22">
-        <v>2</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+    <row r="18" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="36"/>
+      <c r="J18" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="20">
-        <v>2</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+    <row r="19" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+    <row r="20" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="56"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26">
-        <v>2</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="29"/>
-      <c r="B14" s="26">
-        <v>3</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="27">
-        <v>1</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="51">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="33">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="34"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="33">
-        <v>2</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="36"/>
-      <c r="B17" s="31">
-        <v>2</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="33">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="37">
-        <v>1</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="38">
-        <v>1</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="39">
-        <v>1</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="40">
-        <v>1</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+    <row r="21" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
+  <mergeCells count="12">
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
-  <conditionalFormatting sqref="H2:L2 G2:G7 G9:G19">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="IMPORTANTE">
+  <conditionalFormatting sqref="H2:H15">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"COMPLETO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"ANDAMENTO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"INCOMPLETO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:L2 G2:G15">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="IMPORTANTE">
       <formula>NOT(ISERROR(SEARCH("IMPORTANTE",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="ESSENCIAL">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="ESSENCIAL">
       <formula>NOT(ISERROR(SEARCH("ESSENCIAL",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="DESEJÁVEL">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="DESEJÁVEL">
       <formula>NOT(ISERROR(SEARCH("DESEJÁVEL",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7 H9:H19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"INCOMPLETO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7 H9:H19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"ANDAMENTO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7 H9:H19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"COMPLETO"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOCUMENTAÇÃO/Backlog - Projeto-Individual.xlsx
+++ b/DOCUMENTAÇÃO/Backlog - Projeto-Individual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Downloads\Projeto-Individual\DOCUMENTAÇÃO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E0B9FB-C5FF-492E-BCC7-B33538EE3227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D7DE0-A61E-40F1-90E4-37A588CE0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>REQUISITOS PARA A PROJETO INDIVIDUAL - BACKLOG</t>
   </si>
@@ -80,9 +80,6 @@
     <t>ESSENCIAL</t>
   </si>
   <si>
-    <t>INCOMPLETO</t>
-  </si>
-  <si>
     <t>Planejamento</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
   </si>
   <si>
     <t>Falta</t>
-  </si>
-  <si>
-    <t>ANDAMENTO</t>
   </si>
 </sst>
 </file>
@@ -804,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -922,9 +916,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2076,10 +2067,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2399,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2423,33 +2410,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2471,16 +2458,16 @@
       <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="17">
@@ -2493,67 +2480,67 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="38">
         <v>45967</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="43">
+      <c r="J3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="42">
         <v>13</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="42">
         <v>3</v>
       </c>
-      <c r="N3" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="48">
+      <c r="N3" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="47">
         <v>157</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="48">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="17">
         <v>2</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4" s="20">
         <v>8</v>
@@ -2561,235 +2548,245 @@
       <c r="L4" s="4">
         <v>3</v>
       </c>
-      <c r="N4" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="48">
+      <c r="N4" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="47">
         <v>0</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="48">
         <f>SUM(P3-26)</f>
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="27">
         <v>3</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="35">
         <v>1</v>
       </c>
       <c r="E5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="43">
+        <v>17</v>
+      </c>
+      <c r="I5" s="39">
+        <v>45951</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="42">
         <v>21</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="42">
         <v>3</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
-        <v>23</v>
+      <c r="A6" s="75" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="28">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="43">
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="40">
+        <v>45976</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="42">
         <v>21</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="42">
         <v>3</v>
       </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
-      <c r="B7" s="79">
+      <c r="A7" s="76"/>
+      <c r="B7" s="78">
         <v>2</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>27</v>
+      <c r="C7" s="80" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="43">
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="38">
+        <v>45979</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="42">
         <v>8</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="42">
         <v>3</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="43">
+      <c r="H8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="38">
+        <v>45979</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="42">
         <v>8</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="42">
         <v>3</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
-        <v>32</v>
+      <c r="A9" s="73" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="29">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>18</v>
+      <c r="H9" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="38">
         <v>45668</v>
       </c>
-      <c r="J9" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="43">
+      <c r="J9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="42">
         <v>5</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="42">
         <v>2</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="29">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="38"/>
+      <c r="H10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="38">
+        <v>45967</v>
+      </c>
       <c r="J10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="20">
         <v>5</v>
@@ -2797,248 +2794,258 @@
       <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
     </row>
     <row r="11" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="71">
+        <v>1</v>
+      </c>
+      <c r="C11" s="69" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="72">
-        <v>1</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="43">
+      <c r="H11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="38">
+        <v>45977</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="42">
         <v>13</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>2</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
     </row>
     <row r="12" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="10">
         <v>2</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="43">
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="38">
+        <v>45977</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="42">
         <v>13</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="42">
         <v>2</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
     </row>
     <row r="13" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="30">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="43">
+      <c r="H13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="41">
+        <v>45977</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="42">
         <v>21</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="42">
         <v>3</v>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
     </row>
     <row r="14" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="31">
         <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="43">
+      <c r="H14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="41">
+        <v>45976</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="42">
         <v>8</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="42">
         <v>2</v>
       </c>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
     </row>
     <row r="15" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="43">
+      <c r="H15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="41">
+        <v>45984</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="42">
         <v>13</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="42">
         <v>2</v>
       </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
     </row>
     <row r="16" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="Q16" s="54"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="Q16" s="53"/>
     </row>
     <row r="17" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J17" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
+      <c r="J17" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
     </row>
     <row r="18" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="36"/>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="L18" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
     </row>
     <row r="19" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N20" s="56"/>
+      <c r="N20" s="55"/>
     </row>
     <row r="21" spans="8:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N21" s="56"/>
+      <c r="N21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
